--- a/output_by_subject/CE495.xlsx
+++ b/output_by_subject/CE495.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1433,6 +1433,72 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1801CE03</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CE495</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1801CE32</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CE495</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1801CE05</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CE495</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
